--- a/Ping/Piano Indirizzamenti.xlsx
+++ b/Ping/Piano Indirizzamenti.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>LAN</t>
   </si>
@@ -28,21 +28,6 @@
     <t>DBMS</t>
   </si>
   <si>
-    <t>192.168.0.1</t>
-  </si>
-  <si>
-    <t>192.168.0.2</t>
-  </si>
-  <si>
-    <t>192.168.0.3</t>
-  </si>
-  <si>
-    <t>192.168.0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.0.0  - 192.168.0.7 </t>
-  </si>
-  <si>
     <t>/29</t>
   </si>
   <si>
@@ -52,26 +37,92 @@
     <t>DMZ</t>
   </si>
   <si>
-    <t>192.168.1.0 - 192.168.1.2</t>
-  </si>
-  <si>
     <t>/30</t>
   </si>
   <si>
-    <t>192.168.1.1</t>
-  </si>
-  <si>
     <t>WEB Server</t>
   </si>
   <si>
-    <t>192.168.1.2</t>
+    <t>200.0.0.0 - 200.0.0.2</t>
+  </si>
+  <si>
+    <t>200.0.0.2</t>
+  </si>
+  <si>
+    <t>200.0.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201.0.0.0  - 201.0.0.7 </t>
+  </si>
+  <si>
+    <t>201.0.0.1</t>
+  </si>
+  <si>
+    <t>201.0.0.2</t>
+  </si>
+  <si>
+    <t>201.0.0.4</t>
+  </si>
+  <si>
+    <t>201.0.0.3</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>DNS Server</t>
+  </si>
+  <si>
+    <t>8.0.0.0 - 8.0.0.2</t>
+  </si>
+  <si>
+    <t>8.0.0.1</t>
+  </si>
+  <si>
+    <t>8.0.0.2</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Router InfoPoint</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
+    <t>20.0.0.1</t>
+  </si>
+  <si>
+    <t>20.0.0.2</t>
+  </si>
+  <si>
+    <t>Strada</t>
+  </si>
+  <si>
+    <t>Tablet Cliente</t>
+  </si>
+  <si>
+    <t>180.0.0.1 - 180.0.1.254</t>
+  </si>
+  <si>
+    <t>255.255.254.0</t>
+  </si>
+  <si>
+    <t>/23</t>
+  </si>
+  <si>
+    <t>180.0.0.0</t>
+  </si>
+  <si>
+    <t>180.0.0.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +154,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -145,6 +205,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,19 +533,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1" s="7">
         <v>255255255248</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -490,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -498,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -506,35 +569,112 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="8">
         <v>255255255252</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7">
+        <v>255255255252</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
